--- a/Project_Files/Testing/meta.xlsx
+++ b/Project_Files/Testing/meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internal\Tabulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D82D86-02A8-4F28-A392-325975691F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6454B1D-B9C1-4085-8C3B-99A966D7DA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="214">
   <si>
     <t>Var_Name</t>
   </si>
@@ -316,21 +316,6 @@
     <t>E11: Single select</t>
   </si>
   <si>
-    <t>E10r1: Family - Multi select</t>
-  </si>
-  <si>
-    <t>E10r2: Education - Multi select</t>
-  </si>
-  <si>
-    <t>E10r3: Health and fitness - Multi select</t>
-  </si>
-  <si>
-    <t>E10r4: Financial stability - Multi select</t>
-  </si>
-  <si>
-    <t>E10r5: Social life - Multi select</t>
-  </si>
-  <si>
     <t>E8: Open end</t>
   </si>
   <si>
@@ -463,264 +448,24 @@
     <t xml:space="preserve"> Single select</t>
   </si>
   <si>
-    <t xml:space="preserve"> Family - Multi select</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Education - Multi select</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Health and fitness - Multi select</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Financial stability - Multi select</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Social life - Multi select</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Open end</t>
   </si>
   <si>
     <t xml:space="preserve"> Numeric</t>
   </si>
   <si>
-    <t xml:space="preserve"> Exercise - Single select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reading - Single select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cooking - Single select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Watching TV - Single select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amazon - Electronics - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASOS - Electronics - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barnes &amp; Noble - Electronics - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flipkart - Electronics - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Myntra - Electronics - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JioMart - Electronics - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pepperfry - Electronics - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amazon - Clothing - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASOS - Clothing - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barnes &amp; Noble - Clothing - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flipkart - Clothing - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Myntra - Clothing - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JioMart - Clothing - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pepperfry - Clothing - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amazon - Groceries - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASOS - Groceries - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barnes &amp; Noble - Groceries - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flipkart - Groceries - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Myntra - Groceries - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JioMart - Groceries - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pepperfry - Groceries - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amazon - Books - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASOS - Books - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barnes &amp; Noble - Books - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flipkart - Books - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Myntra - Books - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JioMart - Books - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pepperfry - Books - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amazon - Home decor - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASOS - Home decor - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barnes &amp; Noble - Home decor - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flipkart - Home decor - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Myntra - Home decor - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JioMart - Home decor - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pepperfry - Home decor - Multi select grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Customer Support - Open end grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Product Quality - Open end grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Delivery Speed - Open end grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Website Usability - Open end grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Petrol - Numeric grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity Bill - Numeric grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Water Bill - Numeric grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vegetables - Numeric grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Groceries - Numeric grid</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5 points scale rating</t>
   </si>
   <si>
-    <t xml:space="preserve"> Row 1 - 5 points scale rating grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 2 - 5 points scale rating grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 3 - 5 points scale rating grid</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7 points scale rating</t>
   </si>
   <si>
-    <t xml:space="preserve"> Row 1 - 7 points scale rating grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 2 - 7 points scale rating grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 3 - 7 points scale rating grid</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 10 points scale rating</t>
   </si>
   <si>
-    <t xml:space="preserve"> Row 1 - 10 points scale rating grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 2 - 10 points scale rating grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 3 - 10 points scale rating grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LINE - Top 3 Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WhatsApp - Top 3 Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Any other messenger (WeChat, messenger etc.) - Top 3 Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Facebook - Top 3 Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Other social media - Instagram - Top 3 Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YouTube - Top 3 Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Google and other search engines - Top 3 Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 1 - Row 1 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 2 - Row 1 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 1 - Row 2 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 2 - Row 2 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 1 - Row 3 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 2 - Row 3 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 1 - Row 4 - Multi column dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Columns 2 - Row 4 - Multi column dropdown</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Net Promoter Score (NPS)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Row 1 - Net Promoter Score (NPS) grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 2 - Net Promoter Score (NPS) grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Row 3 - Net Promoter Score (NPS) grid</t>
-  </si>
-  <si>
     <t>OE</t>
   </si>
   <si>
@@ -806,6 +551,120 @@
   </si>
   <si>
     <t>E30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Health and fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Financial stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Social life</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watching TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customer Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delivery Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Website Usability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barnes &amp; Noble </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flipkart </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Myntra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JioMart </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pepperfry </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petrol </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vegetables </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Groceries </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Row 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Row 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Row 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WhatsApp </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Any other messenger (WeChat, messenger etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Facebook </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Other social media </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Google and other search engines </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Columns 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Columns 2 </t>
+  </si>
+  <si>
+    <t>E10:Multi select</t>
   </si>
 </sst>
 </file>
@@ -1175,14 +1034,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1218,13 +1075,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1235,13 +1092,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1252,16 +1109,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1269,16 +1126,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,16 +1143,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,16 +1160,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" t="s">
         <v>149</v>
       </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>234</v>
-      </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1320,16 +1177,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,13 +1194,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1354,13 +1211,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1371,19 +1228,19 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,19 +1248,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1411,19 +1268,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1431,19 +1288,19 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,16 +1308,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,16 +1325,16 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,16 +1342,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,16 +1359,16 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,16 +1376,16 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,16 +1393,16 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,16 +1410,16 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
         <v>163</v>
-      </c>
-      <c r="C21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,16 +1427,16 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
         <v>164</v>
-      </c>
-      <c r="C22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,16 +1444,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,16 +1461,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,16 +1478,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1638,16 +1495,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1655,16 +1512,16 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1672,16 +1529,16 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1689,16 +1546,16 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,16 +1563,16 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,16 +1580,16 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,16 +1597,16 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,16 +1614,16 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,16 +1631,16 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,16 +1648,16 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,16 +1665,16 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,16 +1682,16 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,16 +1699,16 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,16 +1716,16 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,16 +1733,16 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,16 +1750,16 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,16 +1767,16 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,16 +1784,16 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,16 +1801,16 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1961,16 +1818,16 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,16 +1835,16 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,16 +1852,16 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,16 +1869,16 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2029,16 +1886,16 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2046,16 +1903,16 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2063,16 +1920,16 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,16 +1937,16 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2097,16 +1954,16 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2117,13 +1974,13 @@
         <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2134,13 +1991,13 @@
         <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,13 +2008,13 @@
         <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,13 +2025,13 @@
         <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,13 +2042,13 @@
         <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2199,19 +2056,19 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
         <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2219,19 +2076,19 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2239,19 +2096,19 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2259,19 +2116,19 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2279,19 +2136,19 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
         <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2299,19 +2156,19 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E64" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2319,19 +2176,19 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="G65" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2339,19 +2196,19 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="G66" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2359,19 +2216,19 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
         <v>72</v>
       </c>
       <c r="G67" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2379,19 +2236,19 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="G68" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2399,19 +2256,19 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,19 +2276,19 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,19 +2296,19 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="G71" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2459,19 +2316,19 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,19 +2336,19 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="G73" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2499,19 +2356,19 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2519,19 +2376,19 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="G75" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2539,19 +2396,19 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="G76" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2559,19 +2416,19 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2579,16 +2436,16 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2596,16 +2453,16 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E79" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2613,16 +2470,16 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2630,16 +2487,16 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2647,16 +2504,16 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2664,16 +2521,16 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,16 +2538,16 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2698,16 +2555,16 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E85" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,19 +2572,19 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,19 +2592,19 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G87" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,19 +2612,19 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G88" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,19 +2632,19 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G89" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Files/Testing/meta.xlsx
+++ b/Project_Files/Testing/meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internal\Tabulation\Project_Files\MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internal\Tabulation\Project_Files\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ACC9085-9F56-40EC-AE9F-2C5F7DB2ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6073806D-459E-43AC-8EBC-E5CEB419FE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
     <sheet name="value_label" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="438">
   <si>
     <t>Var_Name</t>
   </si>
@@ -1342,6 +1345,12 @@
   </si>
   <si>
     <t>Numeric grid</t>
+  </si>
+  <si>
+    <t>Sortorder</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1401,16 +1410,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1428,6 +1451,204 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>E31</v>
+          </cell>
+          <cell r="B1">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>E11</v>
+          </cell>
+          <cell r="B2">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>E10</v>
+          </cell>
+          <cell r="B3">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>E8</v>
+          </cell>
+          <cell r="B4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Q4</v>
+          </cell>
+          <cell r="B5">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>E17</v>
+          </cell>
+          <cell r="B6">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>E12</v>
+          </cell>
+          <cell r="B7">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>E14</v>
+          </cell>
+          <cell r="B8">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>E13</v>
+          </cell>
+          <cell r="B9">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>E22</v>
+          </cell>
+          <cell r="B10">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>E26</v>
+          </cell>
+          <cell r="B11">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>E23</v>
+          </cell>
+          <cell r="B12">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>E27</v>
+          </cell>
+          <cell r="B13">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>E24</v>
+          </cell>
+          <cell r="B14">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>E28</v>
+          </cell>
+          <cell r="B15">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>E6</v>
+          </cell>
+          <cell r="B16">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>E25</v>
+          </cell>
+          <cell r="B17">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>E29</v>
+          </cell>
+          <cell r="B18">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>E30</v>
+          </cell>
+          <cell r="B19">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>FI_E10</v>
+          </cell>
+          <cell r="B20">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>FI_E12</v>
+          </cell>
+          <cell r="B21">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>FL_E10</v>
+          </cell>
+          <cell r="B22">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>FL_E12</v>
+          </cell>
+          <cell r="B23">
+            <v>23</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1715,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1954,7 @@
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1758,8 +1979,11 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1770,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1778,8 +2002,12 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>VLOOKUP(E2,[1]Sheet1!$A:$B,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1798,8 +2026,12 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>VLOOKUP(E3,[1]Sheet1!$A:$B,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1818,8 +2050,12 @@
       <c r="F4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>VLOOKUP(E4,[1]Sheet1!$A:$B,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1838,8 +2074,12 @@
       <c r="F5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f>VLOOKUP(E5,[1]Sheet1!$A:$B,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1858,8 +2098,12 @@
       <c r="F6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>VLOOKUP(E6,[1]Sheet1!$A:$B,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1878,8 +2122,12 @@
       <c r="F7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f>VLOOKUP(E7,[1]Sheet1!$A:$B,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1898,8 +2146,12 @@
       <c r="F8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>VLOOKUP(E8,[1]Sheet1!$A:$B,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1918,8 +2170,12 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f>VLOOKUP(E9,[1]Sheet1!$A:$B,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1938,8 +2194,12 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>VLOOKUP(E10,[1]Sheet1!$A:$B,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1961,8 +2221,12 @@
       <c r="H11" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>VLOOKUP(E11,[1]Sheet1!$A:$B,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1984,8 +2248,12 @@
       <c r="H12" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f>VLOOKUP(E12,[1]Sheet1!$A:$B,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2007,8 +2275,12 @@
       <c r="H13" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f>VLOOKUP(E13,[1]Sheet1!$A:$B,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2030,8 +2302,12 @@
       <c r="H14" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f>VLOOKUP(E14,[1]Sheet1!$A:$B,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2050,8 +2326,12 @@
       <c r="F15" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f>VLOOKUP(E15,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2070,8 +2350,12 @@
       <c r="F16" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f>VLOOKUP(E16,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2090,8 +2374,12 @@
       <c r="F17" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f>VLOOKUP(E17,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2110,8 +2398,12 @@
       <c r="F18" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f>VLOOKUP(E18,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2130,8 +2422,12 @@
       <c r="F19" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f>VLOOKUP(E19,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2150,8 +2446,12 @@
       <c r="F20" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>VLOOKUP(E20,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2170,8 +2470,12 @@
       <c r="F21" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f>VLOOKUP(E21,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2190,8 +2494,12 @@
       <c r="F22" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f>VLOOKUP(E22,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2210,8 +2518,12 @@
       <c r="F23" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f>VLOOKUP(E23,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2230,8 +2542,12 @@
       <c r="F24" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>VLOOKUP(E24,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2250,8 +2566,12 @@
       <c r="F25" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>VLOOKUP(E25,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2270,8 +2590,12 @@
       <c r="F26" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>VLOOKUP(E26,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2290,8 +2614,12 @@
       <c r="F27" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>VLOOKUP(E27,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2310,8 +2638,12 @@
       <c r="F28" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f>VLOOKUP(E28,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2330,8 +2662,12 @@
       <c r="F29" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f>VLOOKUP(E29,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2350,8 +2686,12 @@
       <c r="F30" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f>VLOOKUP(E30,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2370,8 +2710,12 @@
       <c r="F31" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f>VLOOKUP(E31,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2390,8 +2734,12 @@
       <c r="F32" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>VLOOKUP(E32,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2758,12 @@
       <c r="F33" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f>VLOOKUP(E33,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2430,8 +2782,12 @@
       <c r="F34" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f>VLOOKUP(E34,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2450,8 +2806,12 @@
       <c r="F35" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f>VLOOKUP(E35,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2470,8 +2830,12 @@
       <c r="F36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>VLOOKUP(E36,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2490,8 +2854,12 @@
       <c r="F37" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f>VLOOKUP(E37,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2510,8 +2878,12 @@
       <c r="F38" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f>VLOOKUP(E38,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2530,8 +2902,12 @@
       <c r="F39" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f>VLOOKUP(E39,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2550,8 +2926,12 @@
       <c r="F40" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f>VLOOKUP(E40,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2950,12 @@
       <c r="F41" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f>VLOOKUP(E41,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2590,8 +2974,12 @@
       <c r="F42" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f>VLOOKUP(E42,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2610,8 +2998,12 @@
       <c r="F43" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f>VLOOKUP(E43,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2630,8 +3022,12 @@
       <c r="F44" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>VLOOKUP(E44,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2650,8 +3046,12 @@
       <c r="F45" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f>VLOOKUP(E45,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2670,8 +3070,12 @@
       <c r="F46" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f>VLOOKUP(E46,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2690,8 +3094,12 @@
       <c r="F47" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f>VLOOKUP(E47,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2710,8 +3118,12 @@
       <c r="F48" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f>VLOOKUP(E48,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2730,8 +3142,12 @@
       <c r="F49" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f>VLOOKUP(E49,[1]Sheet1!$A:$B,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2750,8 +3166,12 @@
       <c r="F50" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f>VLOOKUP(E50,[1]Sheet1!$A:$B,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2770,8 +3190,12 @@
       <c r="F51" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f>VLOOKUP(E51,[1]Sheet1!$A:$B,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2790,8 +3214,12 @@
       <c r="F52" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>VLOOKUP(E52,[1]Sheet1!$A:$B,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -2810,8 +3238,12 @@
       <c r="F53" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f>VLOOKUP(E53,[1]Sheet1!$A:$B,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -2830,8 +3262,12 @@
       <c r="F54" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f>VLOOKUP(E54,[1]Sheet1!$A:$B,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -2850,8 +3286,12 @@
       <c r="F55" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f>VLOOKUP(E55,[1]Sheet1!$A:$B,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -2870,8 +3310,12 @@
       <c r="F56" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f>VLOOKUP(E56,[1]Sheet1!$A:$B,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -2890,8 +3334,12 @@
       <c r="F57" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f>VLOOKUP(E57,[1]Sheet1!$A:$B,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -2910,8 +3358,12 @@
       <c r="F58" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f>VLOOKUP(E58,[1]Sheet1!$A:$B,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -2933,8 +3385,12 @@
       <c r="H59" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f>VLOOKUP(E59,[1]Sheet1!$A:$B,2,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3412,12 @@
       <c r="H60" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f>VLOOKUP(E60,[1]Sheet1!$A:$B,2,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -2979,8 +3439,12 @@
       <c r="H61" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f>VLOOKUP(E61,[1]Sheet1!$A:$B,2,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3002,8 +3466,12 @@
       <c r="H62" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f>VLOOKUP(E62,[1]Sheet1!$A:$B,2,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -3025,8 +3493,12 @@
       <c r="H63" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f>VLOOKUP(E63,[1]Sheet1!$A:$B,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -3048,8 +3520,12 @@
       <c r="H64" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f>VLOOKUP(E64,[1]Sheet1!$A:$B,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -3071,8 +3547,12 @@
       <c r="H65" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f>VLOOKUP(E65,[1]Sheet1!$A:$B,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -3094,8 +3574,12 @@
       <c r="H66" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f>VLOOKUP(E66,[1]Sheet1!$A:$B,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -3117,8 +3601,12 @@
       <c r="H67" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f>VLOOKUP(E67,[1]Sheet1!$A:$B,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -3140,8 +3628,12 @@
       <c r="H68" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f>VLOOKUP(E68,[1]Sheet1!$A:$B,2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -3163,8 +3655,12 @@
       <c r="H69" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f>VLOOKUP(E69,[1]Sheet1!$A:$B,2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -3186,8 +3682,12 @@
       <c r="H70" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f>VLOOKUP(E70,[1]Sheet1!$A:$B,2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -3209,8 +3709,12 @@
       <c r="H71" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f>VLOOKUP(E71,[1]Sheet1!$A:$B,2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>99</v>
       </c>
@@ -3232,8 +3736,12 @@
       <c r="H72" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f>VLOOKUP(E72,[1]Sheet1!$A:$B,2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -3255,8 +3763,12 @@
       <c r="H73" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f>VLOOKUP(E73,[1]Sheet1!$A:$B,2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -3278,8 +3790,12 @@
       <c r="H74" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f>VLOOKUP(E74,[1]Sheet1!$A:$B,2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -3301,8 +3817,12 @@
       <c r="H75" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f>VLOOKUP(E75,[1]Sheet1!$A:$B,2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -3324,8 +3844,12 @@
       <c r="H76" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f>VLOOKUP(E76,[1]Sheet1!$A:$B,2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -3347,8 +3871,12 @@
       <c r="H77" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f>VLOOKUP(E77,[1]Sheet1!$A:$B,2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>111</v>
       </c>
@@ -3367,8 +3895,12 @@
       <c r="F78" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f>VLOOKUP(E78,[1]Sheet1!$A:$B,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -3387,8 +3919,12 @@
       <c r="F79" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f>VLOOKUP(E79,[1]Sheet1!$A:$B,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -3407,8 +3943,12 @@
       <c r="F80" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f>VLOOKUP(E80,[1]Sheet1!$A:$B,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -3427,8 +3967,12 @@
       <c r="F81" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f>VLOOKUP(E81,[1]Sheet1!$A:$B,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>119</v>
       </c>
@@ -3447,8 +3991,12 @@
       <c r="F82" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f>VLOOKUP(E82,[1]Sheet1!$A:$B,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -3467,8 +4015,12 @@
       <c r="F83" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f>VLOOKUP(E83,[1]Sheet1!$A:$B,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -3487,8 +4039,12 @@
       <c r="F84" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f>VLOOKUP(E84,[1]Sheet1!$A:$B,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -3507,8 +4063,12 @@
       <c r="F85" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f>VLOOKUP(E85,[1]Sheet1!$A:$B,2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -3530,8 +4090,12 @@
       <c r="H86" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f>VLOOKUP(E86,[1]Sheet1!$A:$B,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -3553,8 +4117,12 @@
       <c r="H87" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f>VLOOKUP(E87,[1]Sheet1!$A:$B,2,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -3576,8 +4144,12 @@
       <c r="H88" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f>VLOOKUP(E88,[1]Sheet1!$A:$B,2,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -3599,8 +4171,12 @@
       <c r="H89" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f>VLOOKUP(E89,[1]Sheet1!$A:$B,2,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -3619,8 +4195,12 @@
       <c r="F90" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f>VLOOKUP(E90,[1]Sheet1!$A:$B,2,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>143</v>
       </c>
@@ -3639,8 +4219,12 @@
       <c r="F91" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f>VLOOKUP(E91,[1]Sheet1!$A:$B,2,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -3659,8 +4243,12 @@
       <c r="F92" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f>VLOOKUP(E92,[1]Sheet1!$A:$B,2,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>147</v>
       </c>
@@ -3679,8 +4267,12 @@
       <c r="F93" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f>VLOOKUP(E93,[1]Sheet1!$A:$B,2,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -3699,8 +4291,12 @@
       <c r="F94" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f>VLOOKUP(E94,[1]Sheet1!$A:$B,2,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>151</v>
       </c>
@@ -3719,8 +4315,12 @@
       <c r="F95" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f>VLOOKUP(E95,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -3739,8 +4339,12 @@
       <c r="F96" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f>VLOOKUP(E96,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -3759,8 +4363,12 @@
       <c r="F97" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f>VLOOKUP(E97,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>154</v>
       </c>
@@ -3779,8 +4387,12 @@
       <c r="F98" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f>VLOOKUP(E98,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>155</v>
       </c>
@@ -3799,8 +4411,12 @@
       <c r="F99" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f>VLOOKUP(E99,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>156</v>
       </c>
@@ -3819,8 +4435,12 @@
       <c r="F100" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f>VLOOKUP(E100,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>157</v>
       </c>
@@ -3839,8 +4459,12 @@
       <c r="F101" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f>VLOOKUP(E101,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>158</v>
       </c>
@@ -3859,8 +4483,12 @@
       <c r="F102" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f>VLOOKUP(E102,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>159</v>
       </c>
@@ -3879,8 +4507,12 @@
       <c r="F103" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f>VLOOKUP(E103,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>160</v>
       </c>
@@ -3899,8 +4531,12 @@
       <c r="F104" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f>VLOOKUP(E104,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -3919,8 +4555,12 @@
       <c r="F105" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f>VLOOKUP(E105,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>162</v>
       </c>
@@ -3939,8 +4579,12 @@
       <c r="F106" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f>VLOOKUP(E106,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>163</v>
       </c>
@@ -3959,8 +4603,12 @@
       <c r="F107" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f>VLOOKUP(E107,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>164</v>
       </c>
@@ -3979,8 +4627,12 @@
       <c r="F108" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f>VLOOKUP(E108,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -3999,8 +4651,12 @@
       <c r="F109" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f>VLOOKUP(E109,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>166</v>
       </c>
@@ -4019,8 +4675,12 @@
       <c r="F110" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f>VLOOKUP(E110,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>167</v>
       </c>
@@ -4039,8 +4699,12 @@
       <c r="F111" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f>VLOOKUP(E111,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>168</v>
       </c>
@@ -4059,8 +4723,12 @@
       <c r="F112" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f>VLOOKUP(E112,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>169</v>
       </c>
@@ -4079,8 +4747,12 @@
       <c r="F113" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f>VLOOKUP(E113,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>170</v>
       </c>
@@ -4099,8 +4771,12 @@
       <c r="F114" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f>VLOOKUP(E114,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>171</v>
       </c>
@@ -4119,8 +4795,12 @@
       <c r="F115" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f>VLOOKUP(E115,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>172</v>
       </c>
@@ -4139,8 +4819,12 @@
       <c r="F116" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f>VLOOKUP(E116,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>173</v>
       </c>
@@ -4159,8 +4843,12 @@
       <c r="F117" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f>VLOOKUP(E117,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>174</v>
       </c>
@@ -4179,8 +4867,12 @@
       <c r="F118" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f>VLOOKUP(E118,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>175</v>
       </c>
@@ -4199,8 +4891,12 @@
       <c r="F119" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f>VLOOKUP(E119,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>176</v>
       </c>
@@ -4219,8 +4915,12 @@
       <c r="F120" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f>VLOOKUP(E120,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>177</v>
       </c>
@@ -4239,8 +4939,12 @@
       <c r="F121" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f>VLOOKUP(E121,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>178</v>
       </c>
@@ -4259,8 +4963,12 @@
       <c r="F122" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f>VLOOKUP(E122,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>179</v>
       </c>
@@ -4279,8 +4987,12 @@
       <c r="F123" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f>VLOOKUP(E123,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>180</v>
       </c>
@@ -4299,8 +5011,12 @@
       <c r="F124" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f>VLOOKUP(E124,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>181</v>
       </c>
@@ -4319,8 +5035,12 @@
       <c r="F125" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f>VLOOKUP(E125,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>182</v>
       </c>
@@ -4339,8 +5059,12 @@
       <c r="F126" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f>VLOOKUP(E126,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>183</v>
       </c>
@@ -4359,8 +5083,12 @@
       <c r="F127" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f>VLOOKUP(E127,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>184</v>
       </c>
@@ -4379,8 +5107,12 @@
       <c r="F128" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f>VLOOKUP(E128,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>185</v>
       </c>
@@ -4399,8 +5131,12 @@
       <c r="F129" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f>VLOOKUP(E129,[1]Sheet1!$A:$B,2,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>337</v>
       </c>
@@ -4419,8 +5155,12 @@
       <c r="F130" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f>VLOOKUP(E130,[1]Sheet1!$A:$B,2,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>338</v>
       </c>
@@ -4439,8 +5179,12 @@
       <c r="F131" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f>VLOOKUP(E131,[1]Sheet1!$A:$B,2,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>339</v>
       </c>
@@ -4459,8 +5203,12 @@
       <c r="F132" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f>VLOOKUP(E132,[1]Sheet1!$A:$B,2,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>340</v>
       </c>
@@ -4479,8 +5227,12 @@
       <c r="F133" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f>VLOOKUP(E133,[1]Sheet1!$A:$B,2,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>341</v>
       </c>
@@ -4499,8 +5251,12 @@
       <c r="F134" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f>VLOOKUP(E134,[1]Sheet1!$A:$B,2,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>186</v>
       </c>
@@ -4519,8 +5275,12 @@
       <c r="F135" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f>VLOOKUP(E135,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>187</v>
       </c>
@@ -4539,8 +5299,12 @@
       <c r="F136" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f>VLOOKUP(E136,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>188</v>
       </c>
@@ -4559,8 +5323,12 @@
       <c r="F137" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <f>VLOOKUP(E137,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>189</v>
       </c>
@@ -4579,8 +5347,12 @@
       <c r="F138" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f>VLOOKUP(E138,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>190</v>
       </c>
@@ -4599,8 +5371,12 @@
       <c r="F139" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f>VLOOKUP(E139,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>191</v>
       </c>
@@ -4619,8 +5395,12 @@
       <c r="F140" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <f>VLOOKUP(E140,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>192</v>
       </c>
@@ -4639,8 +5419,12 @@
       <c r="F141" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f>VLOOKUP(E141,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>193</v>
       </c>
@@ -4659,8 +5443,12 @@
       <c r="F142" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f>VLOOKUP(E142,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>194</v>
       </c>
@@ -4679,8 +5467,12 @@
       <c r="F143" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <f>VLOOKUP(E143,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>195</v>
       </c>
@@ -4699,8 +5491,12 @@
       <c r="F144" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <f>VLOOKUP(E144,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>196</v>
       </c>
@@ -4719,8 +5515,12 @@
       <c r="F145" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <f>VLOOKUP(E145,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>197</v>
       </c>
@@ -4739,8 +5539,12 @@
       <c r="F146" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <f>VLOOKUP(E146,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>198</v>
       </c>
@@ -4759,8 +5563,12 @@
       <c r="F147" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <f>VLOOKUP(E147,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>199</v>
       </c>
@@ -4779,8 +5587,12 @@
       <c r="F148" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <f>VLOOKUP(E148,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>200</v>
       </c>
@@ -4799,8 +5611,12 @@
       <c r="F149" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <f>VLOOKUP(E149,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>201</v>
       </c>
@@ -4819,8 +5635,12 @@
       <c r="F150" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <f>VLOOKUP(E150,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>202</v>
       </c>
@@ -4839,8 +5659,12 @@
       <c r="F151" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <f>VLOOKUP(E151,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>203</v>
       </c>
@@ -4859,8 +5683,12 @@
       <c r="F152" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <f>VLOOKUP(E152,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>204</v>
       </c>
@@ -4879,8 +5707,12 @@
       <c r="F153" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <f>VLOOKUP(E153,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>205</v>
       </c>
@@ -4899,8 +5731,12 @@
       <c r="F154" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f>VLOOKUP(E154,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>206</v>
       </c>
@@ -4919,8 +5755,12 @@
       <c r="F155" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <f>VLOOKUP(E155,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>207</v>
       </c>
@@ -4939,8 +5779,12 @@
       <c r="F156" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <f>VLOOKUP(E156,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>208</v>
       </c>
@@ -4959,8 +5803,12 @@
       <c r="F157" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <f>VLOOKUP(E157,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>209</v>
       </c>
@@ -4979,8 +5827,12 @@
       <c r="F158" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <f>VLOOKUP(E158,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>210</v>
       </c>
@@ -4999,8 +5851,12 @@
       <c r="F159" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <f>VLOOKUP(E159,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>211</v>
       </c>
@@ -5019,8 +5875,12 @@
       <c r="F160" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <f>VLOOKUP(E160,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>212</v>
       </c>
@@ -5039,8 +5899,12 @@
       <c r="F161" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <f>VLOOKUP(E161,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>213</v>
       </c>
@@ -5059,8 +5923,12 @@
       <c r="F162" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <f>VLOOKUP(E162,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>214</v>
       </c>
@@ -5079,8 +5947,12 @@
       <c r="F163" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <f>VLOOKUP(E163,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>215</v>
       </c>
@@ -5099,8 +5971,12 @@
       <c r="F164" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <f>VLOOKUP(E164,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>216</v>
       </c>
@@ -5119,8 +5995,12 @@
       <c r="F165" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <f>VLOOKUP(E165,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>217</v>
       </c>
@@ -5139,8 +6019,12 @@
       <c r="F166" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <f>VLOOKUP(E166,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>218</v>
       </c>
@@ -5159,8 +6043,12 @@
       <c r="F167" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <f>VLOOKUP(E167,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>219</v>
       </c>
@@ -5179,8 +6067,12 @@
       <c r="F168" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <f>VLOOKUP(E168,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>220</v>
       </c>
@@ -5199,9 +6091,14 @@
       <c r="F169" t="s">
         <v>434</v>
       </c>
+      <c r="I169">
+        <f>VLOOKUP(E169,[1]Sheet1!$A:$B,2,0)</f>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
